--- a/latex/performance_content/scaling/ItascaStrongScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaStrongScaling.xlsx
@@ -4,13 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14680" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="50160" windowHeight="19260" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="n50_strong_alltoallv" sheetId="1" r:id="rId1"/>
     <sheet name="n50_strong_isendirecv" sheetId="2" r:id="rId2"/>
-    <sheet name="n50_strong_nocopyout" sheetId="3" r:id="rId3"/>
+    <sheet name="n50_strong_prerecv" sheetId="4" r:id="rId3"/>
+    <sheet name="n50_strong_nodecode" sheetId="3" r:id="rId4"/>
+    <sheet name="n50_strong_overlap_cpu" sheetId="5" r:id="rId5"/>
+    <sheet name="n17_strong_overlap_cpu" sheetId="6" r:id="rId6"/>
+    <sheet name="n31_strong_overlap_cpu" sheetId="7" r:id="rId7"/>
+    <sheet name="n101_strong_overlap_cpu" sheetId="8" r:id="rId8"/>
+    <sheet name="n50_strong_comparison" sheetId="9" r:id="rId9"/>
+    <sheet name="strong_summary_all_stencils" sheetId="10" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
   <si>
     <t>p</t>
   </si>
@@ -34,12 +44,43 @@
   <si>
     <t>SpMV + Comm</t>
   </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>MPI_Isend/MPI_Irecv</t>
+  </si>
+  <si>
+    <t>Pre-recv</t>
+  </si>
+  <si>
+    <t>No Decode</t>
+  </si>
+  <si>
+    <t>Overlap CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Itasca mis-copied this and we lost one data file. P gives N for mean. </t>
+  </si>
+  <si>
+    <t>Too large to run</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,46 +122,5947 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+  <cellStyles count="62">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Weak Scaling </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2000"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Np = 4000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>338.272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.8627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.81571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.86388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.19313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.00573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2085287176"/>
+        <c:axId val="-2086070920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2085287176"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086070920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2086070920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2085287176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Strong Scaling Efficiency, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N = 4096000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpMV + MPI (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Isend/Irecv Overlap CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) on Itasca </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.470607096320856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.390077378757823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.451244433280479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.405948553054662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.362214357724943</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.351944887970273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.325873556355061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.254100648064764</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.187525553255158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.109102145786772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_strong_overlap_cpu!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.509627713518561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.472933250414594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.310429724663585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35045352212372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.512974158710058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.400142150848555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36315697853292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.324725659246763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.239863377030075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.138920972238677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.449445585898833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.393842572794775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27003258522803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.361693306532807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.423099130064358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.407085553439255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.374319130053088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33234869669397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.229125937689981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.170886577185284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2049668888"/>
+        <c:axId val="-2049663704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2049668888"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049663704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2049663704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (t_1 / (p*t_p)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049668888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Speedup</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2000"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Np = 4000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7449113286771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.184641018851596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.135080028545214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.280264450166813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.657798241019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.63556124080588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.46230583421881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.68740151571996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.67291021265737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5769568074986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2086229736"/>
+        <c:axId val="-2085811320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2086229736"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2085811320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2085811320"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup (S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086229736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Efficiency</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2000"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Np = 4000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87245566433855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.546160254712899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.391885003568152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.392516528135426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.364306195031844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.338055644387592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.269236764329834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.225341412170781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.157564277759096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0659931218823228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2080689928"/>
+        <c:axId val="-2081095800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2080689928"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2081095800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2081095800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (t_1 / (p*t_p)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2080689928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Weak Scaling </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2000"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Np = 4000 points</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>338.272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.8627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.81571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.86388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.19313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.00573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n50_strong_isendirecv!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI_Isend/MPI_Irecv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_isendirecv!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>338.497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>378.227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.5966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.9766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.9409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.05766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.91276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.47367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>n50_strong_prerecv!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pre-recv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_prerecv!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>330.789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>374.925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.6044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.1561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.40638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.60605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.27575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2079851592"/>
+        <c:axId val="-2090810248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2079851592"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090810248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2090810248"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2079851592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N = 4096000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI on Itasca </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>338.272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.8627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.0168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.81571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.86388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.19313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.00573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MPI_Isend/MPI_Irecv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_isendirecv!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>338.497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>378.227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.5966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.9766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.9409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.05766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.91276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.47367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-Recv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_prerecv!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>330.789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>374.925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.6044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.1561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.40638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.60605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.27575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.77321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No Decode</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_nodecode!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>330.894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.2127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.1818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.20304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.43283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.01961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.42489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Overlap CPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>324.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205.784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.9443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.76616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.81031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.85262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2054350712"/>
+        <c:axId val="-2054890568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2054350712"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2054890568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2054890568"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2054350712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Strong Scaling Speedup, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N = 4096000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpMV + MPI on Itasca </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7449113286771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.184641018851596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.135080028545214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.280264450166813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.657798241019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.63556124080588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.46230583421881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.68740151571996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.67291021265737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5769568074986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MPI_Isend/MPI_Irecv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_isendirecv!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.894957261115679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.486135136321728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.076388462906847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.322564413820864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.09929012102972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.65573024382735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.00934266275817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.90159503008493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.077346911166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.8399988680786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-recv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_prerecv!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.882280456091218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.329516406488642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.030414260021974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.120224009510189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.74839555194079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.29637368562955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.34975578072844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.81619826098284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.9811493551095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.2801843351207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No Decode</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_nodecode!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95851848418662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.588667396439477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.242391385374382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.783576024204416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1402044333606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.43284270396987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.93810391168173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.64621923240909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.5817009481357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.45732383737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Overlap CPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.898891171797666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5753702911791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.160260681824239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78709290452491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.53917216205945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.05347542011235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.91284864679523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.08126635365626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.3124800972701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.9878550377304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2084254824"/>
+        <c:axId val="-2079782760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2084254824"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2079782760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2079782760"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup (S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2084254824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Strong Scaling Efficiency, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N = 4096000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpMV + MPI on Itasca </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87245566433855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.546160254712899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.391885003568152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.392516528135426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.364306195031844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.338055644387592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.269236764329834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.225341412170781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.157564277759096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0659931218823228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MPI_Isend/MPI_Irecv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_isendirecv!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44747863055784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.371533784080432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.259548557863356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.332660275863804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.378102816282179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.353995785059802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.328197989552798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.269146855586269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.203276068185871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.133632811394608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-recv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_prerecv!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.441140228045609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33237910162216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253801782502747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.341348267300679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36713736099815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.348380838837962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.307419967036941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.280532024456964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.197228807334198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.116484555014766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No Decode</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_nodecode!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47925924209331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.397166849109869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.280298923171798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.361473501512776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.410631388542519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.397388167249529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.358891436810014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291586793876598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.214026759664328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.133259105309932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Overlap CPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.449445585898833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.393842572794775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27003258522803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.361693306532807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.423099130064358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.407085553439255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.374319130053088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33234869669397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.229125937689981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.170886577185284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2079601432"/>
+        <c:axId val="-2084253896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2079601432"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2084253896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2084253896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (t_1 / (p*t_p)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2079601432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N = 4096000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Isend/Irecv Overlap CPU)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t> on Itasca </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>137.966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.4222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.2182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.2413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.12516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.12093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.43695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.23492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_strong_overlap_cpu!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>228.143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.86579999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.6871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.1056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.908670000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.90798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.74442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.85769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.60376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>324.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205.784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.9443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.76616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.81031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.85262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>n=101</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n101_strong_overlap_cpu!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2055158600"/>
+        <c:axId val="-2053166360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2055158600"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053166360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2053166360"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2055158600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Strong Scaling Speedup, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>N = 4096000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpMV + MPI (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Isend/Irecv Overlap CPU) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>on Itasca </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.941214192641712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.560309515031293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.609955466243831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.495176848874599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.59085944719819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.5244728300975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.71181521344782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.0497659045796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.01308326664116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111.7205972856541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.019255427037121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.891733001658375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.483437797308683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.607256353979516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.33732812646151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.60909765430754</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.48409325221374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.12976876717121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.8100490393984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142.2550755724048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.898891171797666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5753702911791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.160260681824239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78709290452491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.53917216205945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.05347542011235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.91284864679523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.08126635365626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.3124800972701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.9878550377304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2073603112"/>
+        <c:axId val="-2081290456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2073603112"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2081290456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2081290456"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup (S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073603112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>168564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>168564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79664</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>16164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>16164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="n50_weak_alltoallv"/>
+      <sheetName val="n50_weak_isendirecv"/>
+      <sheetName val="n50_weak_isend_prerecv"/>
+      <sheetName val="n50_weak_no_decode"/>
+      <sheetName val="n50_weak_overlap_cpu"/>
+      <sheetName val="n17_weak_overlap_cpu"/>
+      <sheetName val="n31_weak_overlap_cpu"/>
+      <sheetName val="n101_weak_overlap_cpu"/>
+      <sheetName val="weak_summary_all_stencils"/>
+      <sheetName val="n50_weak_comparison"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="C2">
+            <v>0.25380000000000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0.28865000000000002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0.37227500000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>0.67996199999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.74388799999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.79966199999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.803234</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>1.01135</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>1.24274</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1.4461200000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>1.91737</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>0.1045</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="C3">
+            <v>0.105</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>4</v>
+          </cell>
+          <cell r="C4">
+            <v>0.10675</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>8</v>
+          </cell>
+          <cell r="C5">
+            <v>0.214975</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>16</v>
+          </cell>
+          <cell r="C6">
+            <v>0.24959400000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>32</v>
+          </cell>
+          <cell r="C7">
+            <v>0.27807199999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>64</v>
+          </cell>
+          <cell r="C8">
+            <v>0.30685000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>128</v>
+          </cell>
+          <cell r="C9">
+            <v>0.37101000000000001</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>256</v>
+          </cell>
+          <cell r="C10">
+            <v>0.72527399999999997</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>512</v>
+          </cell>
+          <cell r="C11">
+            <v>0.80372399999999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1024</v>
+          </cell>
+          <cell r="C12">
+            <v>1.06508</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="C2">
+            <v>0.15740000000000001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0.17874999999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0.20905000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>0.40303800000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.44921299999999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.498338</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.53135200000000005</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>0.68662699999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>0.845688</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1.3513500000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>1.52128</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="C2">
+            <v>0.5333</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0.58745000000000003</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0.84299999999999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1.27271</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1.44293</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1.4615899999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1.5019</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>1.6887799999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>2.0369700000000002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>2.4089900000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +6387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -456,103 +6398,197 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>338.27199999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>$B$2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$2/($A2*$B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>193.86199999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f>$B$2/$B3</f>
+        <v>1.7449113286771003</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <v>0.87245566433855015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>154.84100000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <v>2.1846410188515959</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54616025471289897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <v>107.899</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.1350800285452136</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3918850035681517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
         <v>53.862699999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>6.280264450166813</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39251652813542581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7">
         <v>29.0168</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>11.657798241018996</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36430619503184364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>64</v>
       </c>
       <c r="B8">
         <v>15.635</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>21.635561240805885</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33805564438759195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>128</v>
       </c>
       <c r="B9">
         <v>9.8157099999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>34.462305834218817</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26923676432983451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>256</v>
       </c>
       <c r="B10">
         <v>5.86388</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>57.687401515719962</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2253414121707811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>512</v>
       </c>
       <c r="B11">
         <v>4.19313</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>80.672910212657371</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15756427775909643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1024</v>
       </c>
       <c r="B12">
         <v>5.0057299999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>67.576956807498604</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5993121882322855E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -560,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -568,7 +6604,7 @@
         <v>338.26400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -739,6 +6775,427 @@
       </c>
       <c r="B38">
         <v>4.4444600000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>338.49700000000001</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$2/($A2*$B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>378.22699999999998</v>
+      </c>
+      <c r="C3">
+        <f>$B$2/$B3</f>
+        <v>0.8949572611156793</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <v>0.44747863055783965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>227.77</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <v>1.4861351363217281</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37153378408043203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>163.02199999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.0763884629068472</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2595485578633559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>63.596600000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.3225644138208645</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33266027586380403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>27.976600000000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>12.099290121029718</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37810281628217868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>14.940899999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>22.65573024382735</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35399578505980234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>8.0576600000000003</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>42.009342662758172</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32819798955279822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>4.9127599999999996</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>68.901595030084934</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26914685558626927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>3.2523599999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>104.07734691116605</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20327606818587118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>2.4736699999999998</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>136.83999886807862</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13363281139460803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>338.488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>159.30799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>94.712500000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>71.345399999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>34.382899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>19.4161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>9.5924099999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>4.7654300000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>256</v>
+      </c>
+      <c r="B23">
+        <v>2.3588800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>512</v>
+      </c>
+      <c r="B24">
+        <v>1.1496999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25">
+        <v>0.52912099999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>218.91300000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>133.053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>91.671499999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>29.208500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8.5551999999999992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>5.3442999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>3.2884699999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>2.5509200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>2.1002000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>1.94262</v>
       </c>
     </row>
   </sheetData>
@@ -752,113 +7209,617 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>338.49700000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>330.78899999999999</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$2/($A2*$B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>378.22699999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>374.92500000000001</v>
+      </c>
+      <c r="C3">
+        <f>$B$2/$B3</f>
+        <v>0.88228045609121819</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <v>0.4411402280456091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>227.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>248.804</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <v>1.3295164064886416</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33237910162216039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>163.02199999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>162.917</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.0304142600219741</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25380178250274676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>64.604399999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.1202240095101885</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34134826730067919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>28.156099999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>11.748395551940787</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36713736099814959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>14.836</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>22.296373685629547</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34838083883796167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>8.4063800000000004</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>39.349755780728444</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30741996703694097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>4.6060499999999998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>71.816198260982844</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28053202445696424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>3.2757499999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>100.98114935510951</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19722880733419826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>2.7732100000000002</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>119.28018433512067</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11648455501476628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>330.76799999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>154.452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>100.569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>65.781099999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>33.781500000000001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>18.972999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>9.3386099999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>4.5917500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>256</v>
+      </c>
+      <c r="B23">
+        <v>2.2944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>512</v>
+      </c>
+      <c r="B24">
+        <v>1.11975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25">
+        <v>0.50863899999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>330.78100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>359.99799999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>238.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>156.25700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>59.766500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>25.2089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>13.139900000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>7.4703400000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>4.1013799999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>2.9727600000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>2.5886399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>330.89400000000001</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$2/($A2*$B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>345.214</v>
+      </c>
+      <c r="C3">
+        <f>$B$2/$B3</f>
+        <v>0.95851848418662045</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <v>0.47925924209331022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>208.28399999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <v>1.5886673964394769</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39716684910986921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>147.56299999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.2423913853743827</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28029892317179783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>63.596600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>57.212699999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.7835760242044163</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36147350151277602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7">
-        <v>27.976600000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>25.181799999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>13.140204433360603</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41063138854251885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>64</v>
       </c>
       <c r="B8">
-        <v>14.940899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>13.0105</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>25.432842703969872</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39738816724952924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>128</v>
       </c>
       <c r="B9">
-        <v>8.0576600000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>7.2030399999999997</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>45.938103911681736</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35889143681001356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>256</v>
       </c>
       <c r="B10">
-        <v>4.9127599999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>4.43283</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>74.646219232409095</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29158679387659803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>512</v>
       </c>
       <c r="B11">
-        <v>3.2523599999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>3.0196100000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>109.58170094813569</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21402675966432752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>2.4736699999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>2.42489</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>136.45732383736996</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1332591053099316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -866,20 +7827,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>338.488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>330.87200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>159.30799999999999</v>
+        <v>154.51499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -887,7 +7848,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>94.712500000000006</v>
+        <v>91.892499999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -895,7 +7856,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>71.345399999999998</v>
+        <v>68.424199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -903,7 +7864,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>34.382899999999999</v>
+        <v>34.707599999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -911,7 +7872,7 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>19.4161</v>
+        <v>19.071400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -919,7 +7880,7 @@
         <v>64</v>
       </c>
       <c r="B21">
-        <v>9.5924099999999992</v>
+        <v>9.4982000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -927,7 +7888,7 @@
         <v>128</v>
       </c>
       <c r="B22">
-        <v>4.7654300000000003</v>
+        <v>4.6821900000000003</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -935,7 +7896,7 @@
         <v>256</v>
       </c>
       <c r="B23">
-        <v>2.3588800000000001</v>
+        <v>2.28525</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -943,7 +7904,7 @@
         <v>512</v>
       </c>
       <c r="B24">
-        <v>1.1496999999999999</v>
+        <v>1.1236299999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -951,7 +7912,7 @@
         <v>1024</v>
       </c>
       <c r="B25">
-        <v>0.52912099999999995</v>
+        <v>0.52145799999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -966,13 +7927,16 @@
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="B28">
+        <v>330.88499999999999</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>218.91300000000001</v>
+        <v>345.15</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -980,7 +7944,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>133.053</v>
+        <v>208.21299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -988,7 +7952,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>91.671499999999995</v>
+        <v>147.47900000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -996,7 +7960,7 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>29.208500000000001</v>
+        <v>57.128399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1004,7 +7968,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8.5551999999999992</v>
+        <v>25.120699999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1012,7 +7976,7 @@
         <v>64</v>
       </c>
       <c r="B34">
-        <v>5.3442999999999996</v>
+        <v>12.9734</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1020,7 +7984,7 @@
         <v>128</v>
       </c>
       <c r="B35">
-        <v>3.2884699999999998</v>
+        <v>7.1805500000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1028,7 +7992,7 @@
         <v>256</v>
       </c>
       <c r="B36">
-        <v>2.5509200000000001</v>
+        <v>4.4187399999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1036,7 +8000,7 @@
         <v>512</v>
       </c>
       <c r="B37">
-        <v>2.1002000000000001</v>
+        <v>3.01058</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1044,7 +8008,1240 @@
         <v>1024</v>
       </c>
       <c r="B38">
-        <v>1.94262</v>
+        <v>2.4189600000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>324.18599999999998</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$2/($A2*$B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>360.65100000000001</v>
+      </c>
+      <c r="C3">
+        <f>$B$2/$B3</f>
+        <v>0.89889117179766576</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <v>0.44944558589883288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>205.78399999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <v>1.5753702911791003</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39384257279477508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>150.06800000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.1602606818242394</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27003258522802992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>56.018799999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.7870929045249095</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36169330653280685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>23.944299999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>13.539172162059446</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42309913006435768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>12.443099999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>26.053475420112353</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40708555343925551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>6.7661600000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>47.912848646795226</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3743191300530877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>3.8103099999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>85.081266353656261</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33234869669396977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>2.7634400000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>117.31248009727005</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22912593768998057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>1.8526199999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>174.98785503773036</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17088657718528355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>324.178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>343.928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>195.495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>143.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>50.896099999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>20.6951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>10.507300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>5.6352000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>256</v>
+      </c>
+      <c r="B23">
+        <v>3.1072799999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>512</v>
+      </c>
+      <c r="B24">
+        <v>2.0089100000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25">
+        <v>1.3152299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>324.17399999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>355.80200000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>200.93700000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>145.52600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>52.2226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>20.872199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>10.4498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>5.4759700000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>3.0108700000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>2.28471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>1.5757300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>137.96600000000001</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$2/($A2*$B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>146.583</v>
+      </c>
+      <c r="C3">
+        <f>$B$2/$B3</f>
+        <v>0.94121419264171158</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <v>0.47060709632085579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>88.422200000000004</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <v>1.5603095150312931</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39007737875782328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>38.218200000000003</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.6099554662438313</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45124443328047892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>21.241299999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>6.4951768488745989</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40594855305466243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>11.903</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>11.590859447198186</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36221435772494331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>6.1251600000000002</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>22.524472830097501</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35194488797027346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>3.3075999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>41.711815213447821</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3258735563550611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>2.12093</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>65.049765904579601</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25410064806476407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>1.4369499999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>96.013083266641161</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18752555325515852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>1.23492</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>111.72059728565414</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10910214578677162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>137.959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>139.18899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>80.574299999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>32.646599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>17.282399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>9.4010400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>4.6326099999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>2.4536099999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>256</v>
+      </c>
+      <c r="B23">
+        <v>1.48726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>512</v>
+      </c>
+      <c r="B24">
+        <v>0.84929299999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25">
+        <v>0.79658499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>137.95599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>145.399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>87.004999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>36.512300000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>19.9116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10.9909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>5.5197900000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>2.9338199999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>1.89568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>1.30314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>1.17458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>228.143</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>$B$2/($A2*$B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>223.833</v>
+      </c>
+      <c r="C3">
+        <f>$B$2/$B3</f>
+        <v>1.0192554270371215</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <v>0.50962771351856073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>120.6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <v>1.8917330016583749</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47293325041459372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>91.865799999999993</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.483437797308683</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31042972466358537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>40.687100000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.6072563539795164</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35045352212371977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>17.105599999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>13.337328126461511</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51297415871005814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>8.9086700000000008</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>25.609097654307543</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40014215084855537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>4.9079800000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>46.484093252213739</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36315697853291984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>2.7444199999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>83.129768767171214</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32472565924676255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>1.8576900000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>122.81004903939839</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23986337703007499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>1.6037600000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>142.25507557240485</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13892097223867661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>228.131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>214.71799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>111.901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>85.806899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>36.011200000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>14.182600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>7.1839599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>3.8968699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>256</v>
+      </c>
+      <c r="B23">
+        <v>2.0843500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>512</v>
+      </c>
+      <c r="B24">
+        <v>1.1953800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25">
+        <v>1.05125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>228.126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>221.53399999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>118.041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>89.331000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>38.371299999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>15.2415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>7.7404400000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>4.1410799999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>2.2785199999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>1.5824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>1.46173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1057,282 +9254,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>331.79599999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>187.714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>144.77099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>113.14100000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>47.925899999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>25.134499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>14.0084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>128</v>
-      </c>
-      <c r="B8">
-        <v>9.2004000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>256</v>
-      </c>
-      <c r="B9">
-        <v>5.4727600000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>512</v>
-      </c>
-      <c r="B10">
-        <v>5.4654800000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1024</v>
-      </c>
-      <c r="B11">
-        <v>4.4257200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>331.78800000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>164.262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>121.967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>87.436400000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>40.201099999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>19.897600000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>64</v>
-      </c>
-      <c r="B18">
-        <v>9.7115899999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>128</v>
-      </c>
-      <c r="B19">
-        <v>4.6925999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>256</v>
-      </c>
-      <c r="B20">
-        <v>2.3673299999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>512</v>
-      </c>
-      <c r="B21">
-        <v>1.08019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1024</v>
-      </c>
-      <c r="B22">
-        <v>0.50156599999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>23.4466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>22.797799999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>25.6996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>7.7198700000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>5.2320099999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>64</v>
-      </c>
-      <c r="B29">
-        <v>4.2922200000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>128</v>
-      </c>
-      <c r="B30">
-        <v>4.5036300000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>256</v>
-      </c>
-      <c r="B31">
-        <v>3.10162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>512</v>
-      </c>
-      <c r="B32">
-        <v>4.3818099999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1024</v>
-      </c>
-      <c r="B33">
-        <v>3.9216500000000001</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/latex/performance_content/scaling/ItascaStrongScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaStrongScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="50160" windowHeight="19260" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14740" tabRatio="801" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="n50_strong_alltoallv" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="n50_strong_comparison" sheetId="9" r:id="rId9"/>
     <sheet name="strong_summary_all_stencils" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -122,9 +119,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -190,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="68">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -221,6 +224,9 @@
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -251,6 +257,9 @@
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -414,11 +423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085287176"/>
-        <c:axId val="-2086070920"/>
+        <c:axId val="2128281416"/>
+        <c:axId val="2128211144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085287176"/>
+        <c:axId val="2128281416"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -448,12 +457,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086070920"/>
+        <c:crossAx val="2128211144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2086070920"/>
+        <c:axId val="2128211144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085287176"/>
+        <c:crossAx val="2128281416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -541,92 +550,22 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Strong Scaling Efficiency, </a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Efficiency, N = 4096000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>N = 4096000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>SpMV + MPI (</a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Isend/Irecv Overlap CPU</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>) on Itasca </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -923,11 +862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049668888"/>
-        <c:axId val="-2049663704"/>
+        <c:axId val="-2083463224"/>
+        <c:axId val="-2079169448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049668888"/>
+        <c:axId val="-2083463224"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -957,12 +896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049663704"/>
+        <c:crossAx val="-2079169448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2049663704"/>
+        <c:axId val="-2079169448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,13 +919,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Efficiency</a:t>
+                  <a:t>Efficiency (t_1 / (p*t_p)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (t_1 / (p*t_p)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -997,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049668888"/>
+        <c:crossAx val="-2083463224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1022,7 +956,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1282,11 +1216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2086229736"/>
-        <c:axId val="-2085811320"/>
+        <c:axId val="-2087893240"/>
+        <c:axId val="-2077035640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2086229736"/>
+        <c:axId val="-2087893240"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1316,12 +1250,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085811320"/>
+        <c:crossAx val="-2077035640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085811320"/>
+        <c:axId val="-2077035640"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1360,7 +1294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086229736"/>
+        <c:crossAx val="-2087893240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1444,7 +1378,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1553,11 +1486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080689928"/>
-        <c:axId val="-2081095800"/>
+        <c:axId val="-2099444664"/>
+        <c:axId val="-2099811640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2080689928"/>
+        <c:axId val="-2099444664"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1580,19 +1513,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081095800"/>
+        <c:crossAx val="-2099811640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081095800"/>
+        <c:axId val="-2099811640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,14 +1552,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080689928"/>
+        <c:crossAx val="-2099444664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1640,7 +1571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2017,11 +1947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079851592"/>
-        <c:axId val="-2090810248"/>
+        <c:axId val="-2099653048"/>
+        <c:axId val="-2099816824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079851592"/>
+        <c:axId val="-2099653048"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2051,12 +1981,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090810248"/>
+        <c:crossAx val="-2099816824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2090810248"/>
+        <c:axId val="-2099816824"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2087,7 +2017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079851592"/>
+        <c:crossAx val="-2099653048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2145,70 +2075,17 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Strong Scaling,</a:t>
+              <a:t>Strong Scaling, N = 4096000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>N = 4096000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
@@ -2694,11 +2571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2054350712"/>
-        <c:axId val="-2054890568"/>
+        <c:axId val="-2099567128"/>
+        <c:axId val="-2099600760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2054350712"/>
+        <c:axId val="-2099567128"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2728,12 +2605,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2054890568"/>
+        <c:crossAx val="-2099600760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2054890568"/>
+        <c:axId val="-2099600760"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2764,7 +2641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2054350712"/>
+        <c:crossAx val="-2099567128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2779,6 +2656,16 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2789,7 +2676,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2822,80 +2709,22 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Strong Scaling Speedup, </a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Speedup, N = 4096000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>N = 4096000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>SpMV + MPI on Itasca </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3468,11 +3297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2084254824"/>
-        <c:axId val="-2079782760"/>
+        <c:axId val="-2099479416"/>
+        <c:axId val="-2099660056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2084254824"/>
+        <c:axId val="-2099479416"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3502,12 +3331,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079782760"/>
+        <c:crossAx val="-2099660056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2079782760"/>
+        <c:axId val="-2099660056"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3526,15 +3355,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedup (S</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="-25000"/>
-                  <a:t>p</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>)</a:t>
+                  <a:t>Speedup (Sp)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3546,7 +3367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084254824"/>
+        <c:crossAx val="-2099479416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3561,6 +3382,16 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3571,7 +3402,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3604,80 +3435,22 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Strong Scaling Efficiency, </a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Efficiency, N = 4096000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>N = 4096000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>SpMV + MPI on Itasca </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4158,11 +3931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079601432"/>
-        <c:axId val="-2084253896"/>
+        <c:axId val="-2099646296"/>
+        <c:axId val="-2099761320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079601432"/>
+        <c:axId val="-2099646296"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4192,12 +3965,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084253896"/>
+        <c:crossAx val="-2099761320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2084253896"/>
+        <c:axId val="-2099761320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,13 +3988,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Efficiency</a:t>
+                  <a:t>Efficiency (t_1 / (p*t_p)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (t_1 / (p*t_p)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4232,7 +4000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079601432"/>
+        <c:crossAx val="-2099646296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4247,6 +4015,16 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4257,7 +4035,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4290,84 +4068,21 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Strong Scaling,</a:t>
+              <a:t>Strong Scaling, N = 4096000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>N = 4096000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>SpMV + MPI (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Isend/Irecv Overlap CPU)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t> on Itasca </a:t>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4724,11 +4439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2055158600"/>
-        <c:axId val="-2053166360"/>
+        <c:axId val="-2099470392"/>
+        <c:axId val="-2100114952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2055158600"/>
+        <c:axId val="-2099470392"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4758,12 +4473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2053166360"/>
+        <c:crossAx val="-2100114952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2053166360"/>
+        <c:axId val="-2100114952"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4794,7 +4509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2055158600"/>
+        <c:crossAx val="-2099470392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4819,7 +4534,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4852,92 +4567,22 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Strong Scaling Speedup, </a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Speedup, N = 4096000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>N = 4096000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>SpMV + MPI (</a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Isend/Irecv Overlap CPU) </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>on Itasca </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5326,11 +4971,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073603112"/>
-        <c:axId val="-2081290456"/>
+        <c:axId val="-2082843624"/>
+        <c:axId val="-2082834792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073603112"/>
+        <c:axId val="-2082843624"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5360,12 +5005,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081290456"/>
+        <c:crossAx val="-2082834792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081290456"/>
+        <c:axId val="-2082834792"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5384,15 +5029,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedup (S</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="-25000"/>
-                  <a:t>p</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>)</a:t>
+                  <a:t>Speedup (Sp)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5404,7 +5041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073603112"/>
+        <c:crossAx val="-2082843624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5429,7 +5066,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5782,289 +5419,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="n50_weak_alltoallv"/>
-      <sheetName val="n50_weak_isendirecv"/>
-      <sheetName val="n50_weak_isend_prerecv"/>
-      <sheetName val="n50_weak_no_decode"/>
-      <sheetName val="n50_weak_overlap_cpu"/>
-      <sheetName val="n17_weak_overlap_cpu"/>
-      <sheetName val="n31_weak_overlap_cpu"/>
-      <sheetName val="n101_weak_overlap_cpu"/>
-      <sheetName val="weak_summary_all_stencils"/>
-      <sheetName val="n50_weak_comparison"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="C2">
-            <v>0.25380000000000003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0.28865000000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0.37227500000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>0.67996199999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0.74388799999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>0.79966199999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.803234</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>1.01135</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>1.24274</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1.4461200000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>1.91737</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.1045</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="C3">
-            <v>0.105</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>4</v>
-          </cell>
-          <cell r="C4">
-            <v>0.10675</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>8</v>
-          </cell>
-          <cell r="C5">
-            <v>0.214975</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>16</v>
-          </cell>
-          <cell r="C6">
-            <v>0.24959400000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>32</v>
-          </cell>
-          <cell r="C7">
-            <v>0.27807199999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>64</v>
-          </cell>
-          <cell r="C8">
-            <v>0.30685000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>128</v>
-          </cell>
-          <cell r="C9">
-            <v>0.37101000000000001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>256</v>
-          </cell>
-          <cell r="C10">
-            <v>0.72527399999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>512</v>
-          </cell>
-          <cell r="C11">
-            <v>0.80372399999999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1024</v>
-          </cell>
-          <cell r="C12">
-            <v>1.06508</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="C2">
-            <v>0.15740000000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0.17874999999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0.20905000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>0.40303800000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0.44921299999999997</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>0.498338</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.53135200000000005</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0.68662699999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0.845688</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1.3513500000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>1.52128</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="C2">
-            <v>0.5333</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0.58745000000000003</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0.84299999999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1.27271</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1.44293</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1.4615899999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>1.5019</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>1.6887799999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>2.0369700000000002</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>2.4089900000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6793,8 +6147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8026,8 +7380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8429,7 +7783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
@@ -9258,8 +8612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/latex/performance_content/scaling/ItascaStrongScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaStrongScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14740" tabRatio="801" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="30500" windowHeight="28180" tabRatio="801" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="n50_strong_alltoallv" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
   <si>
     <t>p</t>
   </si>
@@ -119,9 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="76">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -227,6 +235,10 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -260,6 +272,10 @@
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -423,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128281416"/>
-        <c:axId val="2128211144"/>
+        <c:axId val="2113658984"/>
+        <c:axId val="2113665896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128281416"/>
+        <c:axId val="2113658984"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -457,12 +473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128211144"/>
+        <c:crossAx val="2113665896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128211144"/>
+        <c:axId val="2113665896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128281416"/>
+        <c:crossAx val="2113658984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -555,6 +571,538 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Speedup, N = 4096000 points</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.941214192641712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.560309515031293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.609955466243831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.495176848874599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.59085944719819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.5244728300975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.71181521344782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.0497659045796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.01308326664116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111.7205972856541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.019255427037121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.891733001658375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.483437797308683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.607256353979516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.33732812646151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.60909765430754</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.48409325221374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.12976876717121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.8100490393984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142.2550755724048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.898891171797666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5753702911791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.160260681824239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78709290452491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.53917216205945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.05347542011235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.91284864679523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.08126635365626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.3124800972701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.9878550377304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2113156152"/>
+        <c:axId val="2113150552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2113156152"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2113150552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2113150552"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup (Sp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2113156152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Strong Scaling Efficiency, N = 4096000 points</a:t>
             </a:r>
           </a:p>
@@ -862,11 +1410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2083463224"/>
-        <c:axId val="-2079169448"/>
+        <c:axId val="2113114504"/>
+        <c:axId val="2113108968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2083463224"/>
+        <c:axId val="2113114504"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -896,12 +1444,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079169448"/>
+        <c:crossAx val="2113108968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2079169448"/>
+        <c:axId val="2113108968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +1479,441 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083463224"/>
+        <c:crossAx val="2113114504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling, N = 4096000 points</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Visible Communication</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>on Itasca </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$E$29:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$G$29:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0423650764413336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0727272110397615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101148144077952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1237777348844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.133568008065194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.144841930659771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.145183819083323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.192566468483165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.315840495493928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.306088653516017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$E$29:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_strong_overlap_cpu!$G$29:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0304512739408398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0509121061359867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0383613923788832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0580061002135811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0619037040501356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0624649919684981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0497577414740891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0707508325985089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.208334006212016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.255948520975707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$E$29:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$G$29:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.032923796135322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.026445204680636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0167657328677667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0236795504366392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00739633232126223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.00462103495109747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.0235332891920971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0253024032165361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0998031439075933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14061167427751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124120888"/>
+        <c:axId val="2124126488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2124120888"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124126488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2124126488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Visible</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (% of total time)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124120888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1216,11 +2198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2087893240"/>
-        <c:axId val="-2077035640"/>
+        <c:axId val="2113732856"/>
+        <c:axId val="2113738376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2087893240"/>
+        <c:axId val="2113732856"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1250,12 +2232,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077035640"/>
+        <c:crossAx val="2113738376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077035640"/>
+        <c:axId val="2113738376"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1294,7 +2276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087893240"/>
+        <c:crossAx val="2113732856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1378,6 +2360,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1486,11 +2469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099444664"/>
-        <c:axId val="-2099811640"/>
+        <c:axId val="2113767016"/>
+        <c:axId val="2113772600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099444664"/>
+        <c:axId val="2113767016"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1513,18 +2496,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099811640"/>
+        <c:crossAx val="2113772600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099811640"/>
+        <c:axId val="2113772600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,13 +2536,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099444664"/>
+        <c:crossAx val="2113767016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1571,6 +2556,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1641,7 +2627,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1947,11 +2932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099653048"/>
-        <c:axId val="-2099816824"/>
+        <c:axId val="2113826744"/>
+        <c:axId val="2113832296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099653048"/>
+        <c:axId val="2113826744"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1974,19 +2959,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099816824"/>
+        <c:crossAx val="2113832296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099816824"/>
+        <c:axId val="2113832296"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2010,14 +2994,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099653048"/>
+        <c:crossAx val="2113826744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2030,7 +3013,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2070,30 +3052,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Strong Scaling, N = 4096000 points</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>SpMV + MPI on Itasca </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -2101,17 +3059,25 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MPI_Alltoallv</c:v>
+            <c:strRef>
+              <c:f>n50_strong_overlap_cpu!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comm Only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:f>n50_strong_overlap_cpu!$A$28:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2153,415 +3119,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_alltoallv!$B$2:$B$12</c:f>
+              <c:f>n50_strong_overlap_cpu!$B$28:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>338.272</c:v>
+                  <c:v>324.174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193.862</c:v>
+                  <c:v>355.802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.841</c:v>
+                  <c:v>200.937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.899</c:v>
+                  <c:v>145.526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.8627</c:v>
+                  <c:v>52.2226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0168</c:v>
+                  <c:v>20.8722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.635</c:v>
+                  <c:v>10.4498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.81571</c:v>
+                  <c:v>5.47597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.86388</c:v>
+                  <c:v>3.01087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.19313</c:v>
+                  <c:v>2.28471</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.00573</c:v>
+                  <c:v>1.57573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>MPI_Isend/MPI_Irecv</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n50_strong_isendirecv!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>338.497</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>378.227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>227.77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>163.022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.5966</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.9766</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.9409</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.05766</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.91276</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.25236</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.47367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Pre-Recv</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n50_strong_prerecv!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>330.789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>374.925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>248.804</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>162.917</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.6044</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.1561</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.836</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.40638</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.60605</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.27575</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.77321</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>No Decode</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n50_strong_nodecode!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>330.894</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>345.214</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>208.284</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147.563</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.2127</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.1818</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.20304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.43283</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.01961</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.42489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Overlap CPU</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n50_strong_overlap_cpu!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>324.186</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>360.651</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>205.784</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150.068</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.0188</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.9443</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.4431</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.76616</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.81031</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.76344</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.85262</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2571,46 +3169,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099567128"/>
-        <c:axId val="-2099600760"/>
+        <c:axId val="2113870120"/>
+        <c:axId val="2113873144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099567128"/>
+        <c:axId val="2113870120"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Process Count (8 ppn)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099600760"/>
+        <c:crossAx val="2113873144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099600760"/>
+        <c:axId val="2113873144"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2618,69 +3197,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099567128"/>
+        <c:crossAx val="2113870120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1800"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -2714,7 +3248,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Strong Scaling Speedup, N = 4096000 points</a:t>
+              <a:t>Strong Scaling, N = 4096000 points</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2728,7 +3262,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2787,42 +3320,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_alltoallv!$C$2:$C$12</c:f>
+              <c:f>n50_strong_alltoallv!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>338.272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7449113286771</c:v>
+                  <c:v>193.862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.184641018851596</c:v>
+                  <c:v>154.841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.135080028545214</c:v>
+                  <c:v>107.899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.280264450166813</c:v>
+                  <c:v>53.8627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.657798241019</c:v>
+                  <c:v>29.0168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.63556124080588</c:v>
+                  <c:v>15.635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.46230583421881</c:v>
+                  <c:v>9.81571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.68740151571996</c:v>
+                  <c:v>5.86388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.67291021265737</c:v>
+                  <c:v>4.19313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.5769568074986</c:v>
+                  <c:v>5.00573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,42 +3412,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_isendirecv!$C$2:$C$12</c:f>
+              <c:f>n50_strong_isendirecv!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>338.497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.894957261115679</c:v>
+                  <c:v>378.227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.486135136321728</c:v>
+                  <c:v>227.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.076388462906847</c:v>
+                  <c:v>163.022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.322564413820864</c:v>
+                  <c:v>63.5966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.09929012102972</c:v>
+                  <c:v>27.9766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.65573024382735</c:v>
+                  <c:v>14.9409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.00934266275817</c:v>
+                  <c:v>8.05766</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.90159503008493</c:v>
+                  <c:v>4.91276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.077346911166</c:v>
+                  <c:v>3.25236</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136.8399988680786</c:v>
+                  <c:v>2.47367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,7 +3458,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Pre-recv</c:v>
+            <c:v>Pre-Recv</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2971,42 +3504,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_prerecv!$C$2:$C$12</c:f>
+              <c:f>n50_strong_prerecv!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>330.789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.882280456091218</c:v>
+                  <c:v>374.925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.329516406488642</c:v>
+                  <c:v>248.804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.030414260021974</c:v>
+                  <c:v>162.917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.120224009510189</c:v>
+                  <c:v>64.6044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.74839555194079</c:v>
+                  <c:v>28.1561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.29637368562955</c:v>
+                  <c:v>14.836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.34975578072844</c:v>
+                  <c:v>8.40638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.81619826098284</c:v>
+                  <c:v>4.60605</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.9811493551095</c:v>
+                  <c:v>3.27575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>119.2801843351207</c:v>
+                  <c:v>2.77321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,42 +3596,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_nodecode!$C$2:$C$12</c:f>
+              <c:f>n50_strong_nodecode!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>330.894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95851848418662</c:v>
+                  <c:v>345.214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.588667396439477</c:v>
+                  <c:v>208.284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.242391385374382</c:v>
+                  <c:v>147.563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.783576024204416</c:v>
+                  <c:v>57.2127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.1402044333606</c:v>
+                  <c:v>25.1818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.43284270396987</c:v>
+                  <c:v>13.0105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.93810391168173</c:v>
+                  <c:v>7.20304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.64621923240909</c:v>
+                  <c:v>4.43283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.5817009481357</c:v>
+                  <c:v>3.01961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136.45732383737</c:v>
+                  <c:v>2.42489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,134 +3688,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_overlap_cpu!$C$2:$C$12</c:f>
+              <c:f>n50_strong_overlap_cpu!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>324.186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.898891171797666</c:v>
+                  <c:v>360.651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5753702911791</c:v>
+                  <c:v>205.784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.160260681824239</c:v>
+                  <c:v>150.068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.78709290452491</c:v>
+                  <c:v>56.0188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.53917216205945</c:v>
+                  <c:v>23.9443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.05347542011235</c:v>
+                  <c:v>12.4431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.91284864679523</c:v>
+                  <c:v>6.76616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.08126635365626</c:v>
+                  <c:v>3.81031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117.3124800972701</c:v>
+                  <c:v>2.76344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174.9878550377304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Ideal</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>1.85262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,11 +3738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099479416"/>
-        <c:axId val="-2099660056"/>
+        <c:axId val="2113362808"/>
+        <c:axId val="2113357080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099479416"/>
+        <c:axId val="2113362808"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3324,19 +3765,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099660056"/>
+        <c:crossAx val="2113357080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099660056"/>
+        <c:axId val="2113357080"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3355,19 +3795,18 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedup (Sp)</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099479416"/>
+        <c:crossAx val="2113362808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3380,7 +3819,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3440,7 +3878,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Strong Scaling Efficiency, N = 4096000 points</a:t>
+              <a:t>Strong Scaling Speedup, N = 4096000 points</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3454,7 +3892,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3513,42 +3950,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_alltoallv!$D$2:$D$12</c:f>
+              <c:f>n50_strong_alltoallv!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87245566433855</c:v>
+                  <c:v>1.7449113286771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.546160254712899</c:v>
+                  <c:v>2.184641018851596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.391885003568152</c:v>
+                  <c:v>3.135080028545214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.392516528135426</c:v>
+                  <c:v>6.280264450166813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.364306195031844</c:v>
+                  <c:v>11.657798241019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.338055644387592</c:v>
+                  <c:v>21.63556124080588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.269236764329834</c:v>
+                  <c:v>34.46230583421881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.225341412170781</c:v>
+                  <c:v>57.68740151571996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.157564277759096</c:v>
+                  <c:v>80.67291021265737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0659931218823228</c:v>
+                  <c:v>67.5769568074986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3605,42 +4042,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_isendirecv!$D$2:$D$12</c:f>
+              <c:f>n50_strong_isendirecv!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44747863055784</c:v>
+                  <c:v>0.894957261115679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.371533784080432</c:v>
+                  <c:v>1.486135136321728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.259548557863356</c:v>
+                  <c:v>2.076388462906847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.332660275863804</c:v>
+                  <c:v>5.322564413820864</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.378102816282179</c:v>
+                  <c:v>12.09929012102972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.353995785059802</c:v>
+                  <c:v>22.65573024382735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.328197989552798</c:v>
+                  <c:v>42.00934266275817</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.269146855586269</c:v>
+                  <c:v>68.90159503008493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.203276068185871</c:v>
+                  <c:v>104.077346911166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.133632811394608</c:v>
+                  <c:v>136.8399988680786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,42 +4134,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_prerecv!$D$2:$D$12</c:f>
+              <c:f>n50_strong_prerecv!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.441140228045609</c:v>
+                  <c:v>0.882280456091218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33237910162216</c:v>
+                  <c:v>1.329516406488642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.253801782502747</c:v>
+                  <c:v>2.030414260021974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.341348267300679</c:v>
+                  <c:v>5.120224009510189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36713736099815</c:v>
+                  <c:v>11.74839555194079</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.348380838837962</c:v>
+                  <c:v>22.29637368562955</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.307419967036941</c:v>
+                  <c:v>39.34975578072844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.280532024456964</c:v>
+                  <c:v>71.81619826098284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.197228807334198</c:v>
+                  <c:v>100.9811493551095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.116484555014766</c:v>
+                  <c:v>119.2801843351207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,42 +4226,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_nodecode!$D$2:$D$12</c:f>
+              <c:f>n50_strong_nodecode!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47925924209331</c:v>
+                  <c:v>0.95851848418662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.397166849109869</c:v>
+                  <c:v>1.588667396439477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.280298923171798</c:v>
+                  <c:v>2.242391385374382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.361473501512776</c:v>
+                  <c:v>5.783576024204416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.410631388542519</c:v>
+                  <c:v>13.1402044333606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.397388167249529</c:v>
+                  <c:v>25.43284270396987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.358891436810014</c:v>
+                  <c:v>45.93810391168173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.291586793876598</c:v>
+                  <c:v>74.64621923240909</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.214026759664328</c:v>
+                  <c:v>109.5817009481357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.133259105309932</c:v>
+                  <c:v>136.45732383737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,42 +4318,134 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>n50_strong_overlap_cpu!$D$2:$D$12</c:f>
+              <c:f>n50_strong_overlap_cpu!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.449445585898833</c:v>
+                  <c:v>0.898891171797666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.393842572794775</c:v>
+                  <c:v>1.5753702911791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27003258522803</c:v>
+                  <c:v>2.160260681824239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.361693306532807</c:v>
+                  <c:v>5.78709290452491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.423099130064358</c:v>
+                  <c:v>13.53917216205945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.407085553439255</c:v>
+                  <c:v>26.05347542011235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.374319130053088</c:v>
+                  <c:v>47.91284864679523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33234869669397</c:v>
+                  <c:v>85.08126635365626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.229125937689981</c:v>
+                  <c:v>117.3124800972701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.170886577185284</c:v>
+                  <c:v>174.9878550377304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,11 +4460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099646296"/>
-        <c:axId val="-2099761320"/>
+        <c:axId val="2113308808"/>
+        <c:axId val="2113303144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099646296"/>
+        <c:axId val="2113308808"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3958,20 +4487,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099761320"/>
+        <c:crossAx val="2113303144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099761320"/>
+        <c:axId val="2113303144"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3988,19 +4517,18 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Efficiency (t_1 / (p*t_p)</a:t>
+                  <a:t>Speedup (Sp)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099646296"/>
+        <c:crossAx val="2113308808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4013,7 +4541,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4049,6 +4576,635 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling Efficiency, N = 4096000 points</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI on Itasca </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MPI_Alltoallv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87245566433855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.546160254712899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.391885003568152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.392516528135426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.364306195031844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.338055644387592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.269236764329834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.225341412170781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.157564277759096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0659931218823228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MPI_Isend/MPI_Irecv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_isendirecv!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44747863055784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.371533784080432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.259548557863356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.332660275863804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.378102816282179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.353995785059802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.328197989552798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.269146855586269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.203276068185871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.133632811394608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-recv</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_prerecv!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.441140228045609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33237910162216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253801782502747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.341348267300679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36713736099815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.348380838837962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.307419967036941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.280532024456964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.197228807334198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.116484555014766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No Decode</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_nodecode!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47925924209331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.397166849109869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.280298923171798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.361473501512776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.410631388542519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.397388167249529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.358891436810014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291586793876598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.214026759664328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.133259105309932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Overlap CPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.449445585898833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.393842572794775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27003258522803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.361693306532807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.423099130064358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.407085553439255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.374319130053088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33234869669397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.229125937689981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.170886577185284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2113260056"/>
+        <c:axId val="2113254312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2113260056"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2113254312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2113254312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency (t_1 / (p*t_p)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2113260056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4439,11 +5595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099470392"/>
-        <c:axId val="-2100114952"/>
+        <c:axId val="2113204232"/>
+        <c:axId val="2113198632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099470392"/>
+        <c:axId val="2113204232"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4473,12 +5629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100114952"/>
+        <c:crossAx val="2113198632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2100114952"/>
+        <c:axId val="2113198632"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4509,539 +5665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099470392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1800"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Strong Scaling Speedup, N = 4096000 points</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>n=17</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n17_strong_overlap_cpu!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.941214192641712</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.560309515031293</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.609955466243831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.495176848874599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.59085944719819</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.5244728300975</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.71181521344782</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.0497659045796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96.01308326664116</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>111.7205972856541</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>n=31</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n31_strong_overlap_cpu!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.019255427037121</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.891733001658375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.483437797308683</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.607256353979516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.33732812646151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.60909765430754</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46.48409325221374</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.12976876717121</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>122.8100490393984</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>142.2550755724048</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>n=50</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n50_strong_overlap_cpu!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.898891171797666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5753702911791</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.160260681824239</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.78709290452491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.53917216205945</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.05347542011235</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.91284864679523</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85.08126635365626</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>117.3124800972701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>174.9878550377304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Ideal</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2082843624"/>
-        <c:axId val="-2082834792"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2082843624"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Process Count (8 ppn)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082834792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2082834792"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedup (Sp)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082843624"/>
+        <c:crossAx val="2113204232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5221,6 +5845,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5318,7 +5977,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5411,6 +6070,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>181264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6147,8 +6838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7378,15 +8069,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7400,7 +8091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7416,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7432,7 +8123,7 @@
         <v>0.44944558589883288</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7448,7 +8139,7 @@
         <v>0.39384257279477508</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>8</v>
       </c>
@@ -7464,7 +8155,7 @@
         <v>0.27003258522802992</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>16</v>
       </c>
@@ -7480,7 +8171,7 @@
         <v>0.36169330653280685</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>32</v>
       </c>
@@ -7496,7 +8187,7 @@
         <v>0.42309913006435768</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>64</v>
       </c>
@@ -7511,8 +8202,12 @@
         <f t="shared" si="0"/>
         <v>0.40708555343925551</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G8">
+        <f>n50_strong_alltoallv!B12/n50_strong_overlap_cpu!B12</f>
+        <v>2.701973421424793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>128</v>
       </c>
@@ -7528,7 +8223,7 @@
         <v>0.3743191300530877</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>256</v>
       </c>
@@ -7544,7 +8239,7 @@
         <v>0.33234869669396977</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>512</v>
       </c>
@@ -7560,7 +8255,7 @@
         <v>0.22912593768998057</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -7576,7 +8271,7 @@
         <v>0.17088657718528355</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7584,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7592,7 +8287,7 @@
         <v>324.178</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7600,7 +8295,7 @@
         <v>343.928</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7608,7 +8303,7 @@
         <v>195.495</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>8</v>
       </c>
@@ -7616,7 +8311,7 @@
         <v>143.01</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
@@ -7624,7 +8319,7 @@
         <v>50.896099999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>32</v>
       </c>
@@ -7632,7 +8327,7 @@
         <v>20.6951</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>64</v>
       </c>
@@ -7640,7 +8335,7 @@
         <v>10.507300000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>128</v>
       </c>
@@ -7648,7 +8343,7 @@
         <v>5.6352000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>256</v>
       </c>
@@ -7656,7 +8351,7 @@
         <v>3.1072799999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>512</v>
       </c>
@@ -7664,7 +8359,7 @@
         <v>2.0089100000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -7672,7 +8367,7 @@
         <v>1.3152299999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -7680,97 +8375,212 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
         <v>324.17399999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28" s="1"/>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
         <v>355.80200000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F38" si="2">B29-B16</f>
+        <v>11.874000000000024</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G38" si="3">F29/B3</f>
+        <v>3.2923796135322023E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30">
         <v>200.93700000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>5.4420000000000073</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6445204680636044E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31">
         <v>145.52600000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>2.5160000000000196</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6765732867766742E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>16</v>
       </c>
       <c r="B32">
         <v>52.2226</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1.3265000000000029</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>2.367955043663918E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>20.872199999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.17709999999999937</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3963323212622367E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>64</v>
       </c>
       <c r="B34">
         <v>10.4498</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>-5.7500000000000995E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.6210349510974755E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>128</v>
       </c>
       <c r="B35">
         <v>5.4759700000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>-0.15922999999999998</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.3533289192097139E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>256</v>
       </c>
       <c r="B36">
         <v>3.0108700000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36">
+        <v>256</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>-9.6409999999999663E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.5302403216536099E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>512</v>
       </c>
       <c r="B37">
         <v>2.28471</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37">
+        <v>512</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.27579999999999982</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9803143907593372E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>1024</v>
       </c>
       <c r="B38">
         <v>1.5757300000000001</v>
+      </c>
+      <c r="E38">
+        <v>1024</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.26050000000000018</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14061167427750978</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7781,10 +8591,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="E28" sqref="E28:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8003,7 +8813,7 @@
         <v>139.18899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4</v>
       </c>
@@ -8011,7 +8821,7 @@
         <v>80.574299999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>8</v>
       </c>
@@ -8019,7 +8829,7 @@
         <v>32.646599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
@@ -8027,7 +8837,7 @@
         <v>17.282399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>32</v>
       </c>
@@ -8035,7 +8845,7 @@
         <v>9.4010400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>64</v>
       </c>
@@ -8043,7 +8853,7 @@
         <v>4.6326099999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>128</v>
       </c>
@@ -8051,7 +8861,7 @@
         <v>2.4536099999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>256</v>
       </c>
@@ -8059,7 +8869,7 @@
         <v>1.48726</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>512</v>
       </c>
@@ -8067,7 +8877,7 @@
         <v>0.84929299999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -8075,7 +8885,7 @@
         <v>0.79658499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8083,92 +8893,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
         <v>137.95599999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28" s="1"/>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
         <v>145.399</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F38" si="2">B29-B16</f>
+        <v>6.210000000000008</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G38" si="3">F29/B3</f>
+        <v>4.2365076441333631E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30">
         <v>87.004999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>6.4307000000000016</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2727211039761527E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31">
         <v>36.512300000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>3.8657000000000039</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10114814407795249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>16</v>
       </c>
       <c r="B32">
         <v>19.9116</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>2.6292000000000009</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12377773488439978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>10.9909</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.5898599999999998</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13356800806519362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>64</v>
       </c>
       <c r="B34">
         <v>5.5197900000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.88718000000000075</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14484193065977063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>128</v>
       </c>
       <c r="B35">
         <v>2.9338199999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.48021000000000003</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14518381908332326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>256</v>
       </c>
       <c r="B36">
         <v>1.89568</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36">
+        <v>256</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.40842000000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19256646848316541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>512</v>
       </c>
       <c r="B37">
         <v>1.30314</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37">
+        <v>512</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.453847</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31584049549392812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>1024</v>
       </c>
       <c r="B38">
         <v>1.17458</v>
+      </c>
+      <c r="E38">
+        <v>1024</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.37799499999999997</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30608865351601722</v>
       </c>
     </row>
   </sheetData>
@@ -8184,10 +9108,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8406,7 +9330,7 @@
         <v>214.71799999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4</v>
       </c>
@@ -8414,7 +9338,7 @@
         <v>111.901</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>8</v>
       </c>
@@ -8422,7 +9346,7 @@
         <v>85.806899999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
@@ -8430,7 +9354,7 @@
         <v>36.011200000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>26</v>
       </c>
@@ -8438,7 +9362,7 @@
         <v>14.182600000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>64</v>
       </c>
@@ -8446,7 +9370,7 @@
         <v>7.1839599999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>128</v>
       </c>
@@ -8454,7 +9378,7 @@
         <v>3.8968699999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>256</v>
       </c>
@@ -8462,7 +9386,7 @@
         <v>2.0843500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>512</v>
       </c>
@@ -8470,7 +9394,7 @@
         <v>1.1953800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -8478,7 +9402,7 @@
         <v>1.05125</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8486,92 +9410,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
         <v>228.126</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28" s="1"/>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
         <v>221.53399999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F38" si="2">B29-B16</f>
+        <v>6.8160000000000025</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G38" si="3">F29/B3</f>
+        <v>3.0451273940839834E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30">
         <v>118.041</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0912106135986741E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31">
         <v>89.331000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>3.5241000000000042</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8361392378883162E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>16</v>
       </c>
       <c r="B32">
         <v>38.371299999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>2.3600999999999956</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8006100213581102E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>26</v>
       </c>
       <c r="B33">
         <v>15.2415</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.0588999999999995</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1903704050135601E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>64</v>
       </c>
       <c r="B34">
         <v>7.7404400000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.55648000000000053</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2464991968498161E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>128</v>
       </c>
       <c r="B35">
         <v>4.1410799999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.24420999999999982</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9757741474089096E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>256</v>
       </c>
       <c r="B36">
         <v>2.2785199999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36">
+        <v>256</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.19416999999999973</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0750832598508881E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>512</v>
       </c>
       <c r="B37">
         <v>1.5824</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37">
+        <v>512</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.38701999999999992</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20833400621201595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>1024</v>
       </c>
       <c r="B38">
         <v>1.46173</v>
+      </c>
+      <c r="E38">
+        <v>1024</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.41047999999999996</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25594852097570703</v>
       </c>
     </row>
   </sheetData>
@@ -8589,7 +9627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="XEI1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -8612,7 +9650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>

--- a/latex/performance_content/scaling/ItascaStrongScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaStrongScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="30500" windowHeight="28180" tabRatio="801" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="801" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="n50_strong_alltoallv" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -201,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -239,6 +243,8 @@
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -276,6 +282,8 @@
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3262,6 +3270,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3765,6 +3774,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3800,6 +3810,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3819,6 +3830,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3892,6 +3904,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4487,6 +4500,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4522,6 +4536,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4541,6 +4556,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4614,6 +4630,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5117,6 +5134,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5151,6 +5169,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -5170,6 +5189,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6838,7 +6858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B30" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -8593,8 +8613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9648,15 +9668,83 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="M11:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="13:13">
+      <c r="M11">
+        <f>n50_strong_overlap_cpu!$C2/n50_strong_alltoallv!$C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="13:13">
+      <c r="M12">
+        <f>n50_strong_overlap_cpu!$C3/n50_strong_alltoallv!$C3</f>
+        <v>0.51515005778497502</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13">
+      <c r="M13">
+        <f>n50_strong_overlap_cpu!$C4/n50_strong_alltoallv!$C4</f>
+        <v>0.72111174219699858</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
+      <c r="M14">
+        <f>n50_strong_overlap_cpu!$C5/n50_strong_alltoallv!$C5</f>
+        <v>0.6890607774458235</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13">
+      <c r="M15">
+        <f>n50_strong_overlap_cpu!$C6/n50_strong_alltoallv!$C6</f>
+        <v>0.92147280587383484</v>
+      </c>
+    </row>
+    <row r="16" spans="13:13">
+      <c r="M16">
+        <f>n50_strong_overlap_cpu!$C7/n50_strong_alltoallv!$C7</f>
+        <v>1.1613832974412499</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17">
+        <f>n50_strong_overlap_cpu!$C8/n50_strong_alltoallv!$C8</f>
+        <v>1.2041968835536392</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18">
+        <f>n50_strong_overlap_cpu!$C9/n50_strong_alltoallv!$C9</f>
+        <v>1.3902972388812387</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19">
+        <f>n50_strong_overlap_cpu!$C10/n50_strong_alltoallv!$C10</f>
+        <v>1.4748673734328526</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20">
+        <f>n50_strong_overlap_cpu!$C11/n50_strong_alltoallv!$C11</f>
+        <v>1.4541743912303293</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21">
+        <f>n50_strong_overlap_cpu!$C12/n50_strong_alltoallv!$C12</f>
+        <v>2.5894604211936487</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/latex/performance_content/scaling/ItascaStrongScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaStrongScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="801" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="801" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="n50_strong_alltoallv" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>p</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Too large to run</t>
+  </si>
+  <si>
+    <t>SpMV Q\B Only</t>
+  </si>
+  <si>
+    <t>Overlap</t>
   </si>
 </sst>
 </file>
@@ -102,12 +108,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +155,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -200,12 +236,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -245,6 +290,8 @@
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -284,6 +331,8 @@
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1460,6 +1509,7 @@
         <c:axId val="2113108968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1471,12 +1521,41 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Efficiency (t_1 / (p*t_p)</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Efficiency (t</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>/(p*t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>))</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1490,6 +1569,7 @@
         <c:crossAx val="2113114504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1924,6 +2004,521 @@
         <c:crossAx val="2124120888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Strong Scaling, N = 4096000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Visible Comm Time w.r.t. Total SpMV on Itasca </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$D$41:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0737138135313E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.569556497001699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.615335289101606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157793930640376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.280491307029231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37548349155675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39408276681752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4445519409844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.573392332608808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.709918925501931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.874682732484695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_strong_overlap_cpu!$D$41:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.38321579009258E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.553263370459226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586808457711443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59160971765336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.468072189957013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.277762837901038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.320628107225882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.385539468375992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.453079339168203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.609793883801926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.810656207911408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$D$41:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.77618404248108E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.554691377536732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55239522994985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58138177359597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.420792662463316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.228083510480574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.265344648841527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.335541873086064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.410709364854828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.602455273137828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72183556260863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>n=101</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n101_strong_overlap_cpu!$D$41:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2146684360"/>
+        <c:axId val="-2145252120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2146684360"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145252120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2145252120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Total Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146684360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6127,6 +6722,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>143164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6856,14 +7483,40 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="L32:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="32" spans="12:15">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="13:17">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="13:17">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="13:17">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -8089,13 +8742,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:G38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -8595,6 +9251,149 @@
       <c r="G38" s="1">
         <f t="shared" si="3"/>
         <v>0.14061167427750978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>324.16500000000002</v>
+      </c>
+      <c r="D41" s="1">
+        <f>(B28-B41)/B2</f>
+        <v>2.7761840424810786E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>155.75200000000001</v>
+      </c>
+      <c r="D42" s="1">
+        <f>(B29-B42)/B3</f>
+        <v>0.55469137753673226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>87.262900000000002</v>
+      </c>
+      <c r="D43" s="1">
+        <f>(B30-B43)/B4</f>
+        <v>0.55239522994985035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>58.279200000000003</v>
+      </c>
+      <c r="D44" s="1">
+        <f>(B31-B44)/B5</f>
+        <v>0.58138177359596988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>28.650300000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <f>(B32-B45)/B6</f>
+        <v>0.42079266246331587</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>15.4109</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46:D51" si="4">(B33-B46)/B7</f>
+        <v>0.22808351048057365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>7.1480899999999998</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.26534464884152664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>3.2056399999999998</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33554187308606365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>1.44594</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.41070936485482812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>0.619861</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.60245527313782821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>0.23844299999999999</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.72183556260863002</v>
       </c>
     </row>
   </sheetData>
@@ -8611,10 +9410,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9113,6 +9912,149 @@
       <c r="G38" s="1">
         <f t="shared" si="3"/>
         <v>0.30608865351601722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>137.94900000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <f>(B28-B41)/B2</f>
+        <v>5.0737138135312907E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>61.911700000000003</v>
+      </c>
+      <c r="D42" s="1">
+        <f>(B29-B42)/B3</f>
+        <v>0.56955649700169875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>32.595700000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <f>(B30-B43)/B4</f>
+        <v>0.61533528910160562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>30.4817</v>
+      </c>
+      <c r="D44" s="1">
+        <f>(B31-B44)/B5</f>
+        <v>0.15779393064037561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>13.9536</v>
+      </c>
+      <c r="D45" s="1">
+        <f>(B32-B45)/B6</f>
+        <v>0.28049130702923081</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>6.5215199999999998</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46:D51" si="4">(B33-B46)/B7</f>
+        <v>0.37548349155675037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>3.1059700000000001</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.39408276681751991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>1.4634199999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44455194098439954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>0.67955500000000002</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5733923326088084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>0.283022</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70991892550193125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>9.4416799999999995E-2</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8746827324846953</v>
       </c>
     </row>
   </sheetData>
@@ -9128,10 +10070,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9630,6 +10572,149 @@
       <c r="G38" s="1">
         <f t="shared" si="3"/>
         <v>0.25594852097570703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>228.11600000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <f>(B28-B41)/B2</f>
+        <v>4.3832157900925757E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>97.695400000000006</v>
+      </c>
+      <c r="D42" s="1">
+        <f>(B29-B42)/B3</f>
+        <v>0.55326337045922624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>47.271900000000002</v>
+      </c>
+      <c r="D43" s="1">
+        <f>(B30-B43)/B4</f>
+        <v>0.58680845771144274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>34.982300000000002</v>
+      </c>
+      <c r="D44" s="1">
+        <f>(B31-B44)/B5</f>
+        <v>0.59160971765335968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>19.326799999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <f>(B32-B45)/B6</f>
+        <v>0.46807218995701338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>10.4902</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46:D51" si="4">(B33-B46)/B7</f>
+        <v>0.27776283790103828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>4.8840700000000004</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3206281072258822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>2.2488600000000001</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38553946837599162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>1.03508</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45307933916820309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>0.44959199999999999</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.60979388380192601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>0.161632</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.81065620791140813</v>
       </c>
     </row>
   </sheetData>
@@ -9647,7 +10732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="XEI1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -9670,8 +10755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M11:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/latex/performance_content/scaling/ItascaStrongScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaStrongScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="801" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="801" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="n50_strong_alltoallv" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -250,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="102">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -292,6 +310,15 @@
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -333,6 +360,15 @@
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2151,9 +2187,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.0737138135313E-5</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.569556497001699</c:v>
                 </c:pt>
@@ -2243,9 +2276,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.38321579009258E-5</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.553263370459226</c:v>
                 </c:pt>
@@ -2335,9 +2365,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.77618404248108E-5</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.554691377536732</c:v>
                 </c:pt>
@@ -7485,7 +7512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L32:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
@@ -8744,8 +8771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8753,7 +8780,7 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8767,7 +8794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8783,7 +8810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8799,7 +8826,7 @@
         <v>0.44944558589883288</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8815,7 +8842,7 @@
         <v>0.39384257279477508</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>8</v>
       </c>
@@ -8831,7 +8858,7 @@
         <v>0.27003258522802992</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>16</v>
       </c>
@@ -8847,7 +8874,7 @@
         <v>0.36169330653280685</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>32</v>
       </c>
@@ -8863,7 +8890,7 @@
         <v>0.42309913006435768</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>64</v>
       </c>
@@ -8878,12 +8905,8 @@
         <f t="shared" si="0"/>
         <v>0.40708555343925551</v>
       </c>
-      <c r="G8">
-        <f>n50_strong_alltoallv!B12/n50_strong_overlap_cpu!B12</f>
-        <v>2.701973421424793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>128</v>
       </c>
@@ -8899,7 +8922,7 @@
         <v>0.3743191300530877</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>256</v>
       </c>
@@ -8915,7 +8938,7 @@
         <v>0.33234869669396977</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>512</v>
       </c>
@@ -8931,7 +8954,7 @@
         <v>0.22912593768998057</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -8947,7 +8970,7 @@
         <v>0.17088657718528355</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8955,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8963,7 +8986,7 @@
         <v>324.178</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9271,10 +9294,7 @@
       <c r="B41">
         <v>324.16500000000002</v>
       </c>
-      <c r="D41" s="1">
-        <f>(B28-B41)/B2</f>
-        <v>2.7761840424810786E-5</v>
-      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
@@ -9413,7 +9433,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D51"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9932,10 +9952,7 @@
       <c r="B41">
         <v>137.94900000000001</v>
       </c>
-      <c r="D41" s="1">
-        <f>(B28-B41)/B2</f>
-        <v>5.0737138135312907E-5</v>
-      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
@@ -10072,8 +10089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10592,10 +10609,7 @@
       <c r="B41">
         <v>228.11600000000001</v>
       </c>
-      <c r="D41" s="1">
-        <f>(B28-B41)/B2</f>
-        <v>4.3832157900925757E-5</v>
-      </c>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
@@ -10755,7 +10769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M11:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>

--- a/latex/performance_content/scaling/ItascaStrongScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaStrongScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="801" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="801" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="n50_strong_alltoallv" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t>p</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Overlap</t>
+  </si>
+  <si>
+    <t>GFLOPs</t>
   </si>
 </sst>
 </file>
@@ -155,9 +158,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="102">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -268,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="102">
+  <cellStyles count="114">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -319,6 +334,12 @@
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -369,6 +390,12 @@
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -532,11 +559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113658984"/>
-        <c:axId val="2113665896"/>
+        <c:axId val="2139983096"/>
+        <c:axId val="-2116538184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113658984"/>
+        <c:axId val="2139983096"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -566,12 +593,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113665896"/>
+        <c:crossAx val="-2116538184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113665896"/>
+        <c:axId val="-2116538184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113658984"/>
+        <c:crossAx val="2139983096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1063,11 +1090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113156152"/>
-        <c:axId val="2113150552"/>
+        <c:axId val="2115063384"/>
+        <c:axId val="2115842632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113156152"/>
+        <c:axId val="2115063384"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1097,12 +1124,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113150552"/>
+        <c:crossAx val="2115842632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113150552"/>
+        <c:axId val="2115842632"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1133,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113156152"/>
+        <c:crossAx val="2115063384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1503,11 +1530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113114504"/>
-        <c:axId val="2113108968"/>
+        <c:axId val="-2117923704"/>
+        <c:axId val="-2116157528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113114504"/>
+        <c:axId val="-2117923704"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1537,12 +1564,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113108968"/>
+        <c:crossAx val="-2116157528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113108968"/>
+        <c:axId val="-2116157528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1602,7 +1629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113114504"/>
+        <c:crossAx val="-2117923704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1963,11 +1990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124120888"/>
-        <c:axId val="2124126488"/>
+        <c:axId val="-2146882568"/>
+        <c:axId val="-2146827080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124120888"/>
+        <c:axId val="-2146882568"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1997,12 +2024,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124126488"/>
+        <c:crossAx val="-2146827080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124126488"/>
+        <c:axId val="-2146827080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124120888"/>
+        <c:crossAx val="-2146882568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2467,11 +2494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146684360"/>
-        <c:axId val="-2145252120"/>
+        <c:axId val="-2144852088"/>
+        <c:axId val="-2103763768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146684360"/>
+        <c:axId val="-2144852088"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2501,12 +2528,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145252120"/>
+        <c:crossAx val="-2103763768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145252120"/>
+        <c:axId val="-2103763768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2542,10 +2569,450 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146684360"/>
+        <c:crossAx val="-2144852088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling GFLOP/sec, N = 4096000 points</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_strong_overlap_cpu!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.009408115042837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.950069244046035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.57498908645114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.64391834256977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.556284219892381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.69990758632277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.73638566176231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.10424476962148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.66176158571947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.91638539963117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112.771677517572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_strong_overlap_cpu!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.113126416326602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.134560140819272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.105737976782753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.764380215488245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.241585170729789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.8461322607801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.50616309729735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.74267213802826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.53394159786039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.7031097761198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158.347882476181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n50_strong_alltoallv!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_strong_overlap_cpu!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.263472204228437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.13572401019268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.990436574272052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.729429325372498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.311831028154834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.10636769502554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.91784201686075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.53655249062983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.4978151384008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148.2210578120024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221.0922909177273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2094948152"/>
+        <c:axId val="2070534600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094948152"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2070534600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2070534600"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GFLOP/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2094948152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2828,11 +3295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113732856"/>
-        <c:axId val="2113738376"/>
+        <c:axId val="2142377256"/>
+        <c:axId val="2147119784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113732856"/>
+        <c:axId val="2142377256"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2862,12 +3329,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113738376"/>
+        <c:crossAx val="2147119784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113738376"/>
+        <c:axId val="2147119784"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2906,7 +3373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113732856"/>
+        <c:crossAx val="2142377256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3099,11 +3566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113767016"/>
-        <c:axId val="2113772600"/>
+        <c:axId val="2121246440"/>
+        <c:axId val="-2144384664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113767016"/>
+        <c:axId val="2121246440"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3133,12 +3600,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113772600"/>
+        <c:crossAx val="-2144384664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113772600"/>
+        <c:axId val="-2144384664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3173,7 +3640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113767016"/>
+        <c:crossAx val="2121246440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3562,11 +4029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113826744"/>
-        <c:axId val="2113832296"/>
+        <c:axId val="-2117779848"/>
+        <c:axId val="-2119550312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113826744"/>
+        <c:axId val="-2117779848"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3595,12 +4062,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113832296"/>
+        <c:crossAx val="-2119550312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113832296"/>
+        <c:axId val="-2119550312"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3630,7 +4097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113826744"/>
+        <c:crossAx val="-2117779848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3799,11 +4266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113870120"/>
-        <c:axId val="2113873144"/>
+        <c:axId val="-2115799384"/>
+        <c:axId val="-2120156232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113870120"/>
+        <c:axId val="-2115799384"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3814,12 +4281,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113873144"/>
+        <c:crossAx val="-2120156232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113873144"/>
+        <c:axId val="-2120156232"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3831,7 +4298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113870120"/>
+        <c:crossAx val="-2115799384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4369,11 +4836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113362808"/>
-        <c:axId val="2113357080"/>
+        <c:axId val="-2116855560"/>
+        <c:axId val="-2103765960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113362808"/>
+        <c:axId val="-2116855560"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4403,12 +4870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113357080"/>
+        <c:crossAx val="-2103765960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113357080"/>
+        <c:axId val="-2103765960"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4439,7 +4906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113362808"/>
+        <c:crossAx val="-2116855560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5095,11 +5562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113308808"/>
-        <c:axId val="2113303144"/>
+        <c:axId val="-2132893704"/>
+        <c:axId val="2122083816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113308808"/>
+        <c:axId val="-2132893704"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5129,12 +5596,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113303144"/>
+        <c:crossAx val="2122083816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113303144"/>
+        <c:axId val="2122083816"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5165,7 +5632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113308808"/>
+        <c:crossAx val="-2132893704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5729,11 +6196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113260056"/>
-        <c:axId val="2113254312"/>
+        <c:axId val="-2115822472"/>
+        <c:axId val="2116786328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113260056"/>
+        <c:axId val="-2115822472"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5763,12 +6230,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113254312"/>
+        <c:crossAx val="2116786328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113254312"/>
+        <c:axId val="2116786328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5798,7 +6265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113260056"/>
+        <c:crossAx val="-2115822472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6237,11 +6704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113204232"/>
-        <c:axId val="2113198632"/>
+        <c:axId val="2112433928"/>
+        <c:axId val="2115752184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113204232"/>
+        <c:axId val="2112433928"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6271,12 +6738,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113198632"/>
+        <c:crossAx val="2115752184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113198632"/>
+        <c:axId val="2115752184"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6307,7 +6774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113204232"/>
+        <c:crossAx val="2112433928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6781,6 +7248,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7109,7 +7608,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7512,8 +8011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L32:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="C54" workbookViewId="0">
+      <selection activeCell="U68" sqref="U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8771,8 +9270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8780,7 +9279,7 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8793,8 +9292,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8809,8 +9311,12 @@
         <f>$B$2/($A2*$B2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>((4096000*50*2)/(B2*0.001))*0.000000001</f>
+        <v>1.263472204228437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8825,8 +9331,12 @@
         <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
         <v>0.44944558589883288</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f>((4096000*50*2)/(B3*0.001))*0.000000001</f>
+        <v>1.1357240101926795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8841,8 +9351,12 @@
         <f t="shared" si="0"/>
         <v>0.39384257279477508</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="2">((4096000*50*2)/(B4*0.001))*0.000000001</f>
+        <v>1.9904365742720525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>8</v>
       </c>
@@ -8857,8 +9371,12 @@
         <f t="shared" si="0"/>
         <v>0.27003258522802992</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>2.7294293253724979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>16</v>
       </c>
@@ -8873,8 +9391,12 @@
         <f t="shared" si="0"/>
         <v>0.36169330653280685</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>7.3118310281548347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>32</v>
       </c>
@@ -8889,8 +9411,12 @@
         <f t="shared" si="0"/>
         <v>0.42309913006435768</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>17.10636769502554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>64</v>
       </c>
@@ -8905,8 +9431,12 @@
         <f t="shared" si="0"/>
         <v>0.40708555343925551</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>32.917842016860753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>128</v>
       </c>
@@ -8921,8 +9451,12 @@
         <f t="shared" si="0"/>
         <v>0.3743191300530877</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>60.536552490629838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>256</v>
       </c>
@@ -8937,8 +9471,12 @@
         <f t="shared" si="0"/>
         <v>0.33234869669396977</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>107.49781513840082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>512</v>
       </c>
@@ -8953,8 +9491,12 @@
         <f t="shared" si="0"/>
         <v>0.22912593768998057</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>148.22105781200241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -8969,8 +9511,12 @@
         <f t="shared" si="0"/>
         <v>0.17088657718528355</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>221.09229091772733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8978,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8986,7 +9532,7 @@
         <v>324.178</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9097,11 +9643,11 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F38" si="2">B29-B16</f>
+        <f t="shared" ref="F29:F38" si="3">B29-B16</f>
         <v>11.874000000000024</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:G38" si="3">F29/B3</f>
+        <f t="shared" ref="G29:G38" si="4">F29/B3</f>
         <v>3.2923796135322023E-2</v>
       </c>
     </row>
@@ -9116,11 +9662,11 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4420000000000073</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6445204680636044E-2</v>
       </c>
     </row>
@@ -9135,11 +9681,11 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5160000000000196</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6765732867766742E-2</v>
       </c>
     </row>
@@ -9154,11 +9700,11 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3265000000000029</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.367955043663918E-2</v>
       </c>
     </row>
@@ -9173,11 +9719,11 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17709999999999937</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3963323212622367E-3</v>
       </c>
     </row>
@@ -9192,11 +9738,11 @@
         <v>64</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.7500000000000995E-2</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.6210349510974755E-3</v>
       </c>
     </row>
@@ -9211,11 +9757,11 @@
         <v>128</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.15922999999999998</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3533289192097139E-2</v>
       </c>
     </row>
@@ -9230,11 +9776,11 @@
         <v>256</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.6409999999999663E-2</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.5302403216536099E-2</v>
       </c>
     </row>
@@ -9249,11 +9795,11 @@
         <v>512</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27579999999999982</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9803143907593372E-2</v>
       </c>
     </row>
@@ -9268,11 +9814,11 @@
         <v>1024</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26050000000000018</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14061167427750978</v>
       </c>
     </row>
@@ -9352,7 +9898,7 @@
         <v>15.4109</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ref="D46:D51" si="4">(B33-B46)/B7</f>
+        <f t="shared" ref="D46:D51" si="5">(B33-B46)/B7</f>
         <v>0.22808351048057365</v>
       </c>
     </row>
@@ -9364,7 +9910,7 @@
         <v>7.1480899999999998</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26534464884152664</v>
       </c>
     </row>
@@ -9376,7 +9922,7 @@
         <v>3.2056399999999998</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33554187308606365</v>
       </c>
     </row>
@@ -9388,7 +9934,7 @@
         <v>1.44594</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41070936485482812</v>
       </c>
     </row>
@@ -9400,7 +9946,7 @@
         <v>0.619861</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60245527313782821</v>
       </c>
     </row>
@@ -9412,7 +9958,7 @@
         <v>0.23844299999999999</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72183556260863002</v>
       </c>
     </row>
@@ -9432,13 +9978,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9451,8 +9997,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9467,8 +10016,12 @@
         <f>$B$2/($A2*$B2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f t="shared" ref="E2:E11" si="0">((4096000*17*2)/(B2*0.001))*0.000000001</f>
+        <v>1.0094081150428367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9480,11 +10033,15 @@
         <v>0.94121419264171158</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
+        <f t="shared" ref="D3:D12" si="1">$B$2/($A3*$B3)</f>
         <v>0.47060709632085579</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.95006924404603543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9492,15 +10049,19 @@
         <v>88.422200000000004</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <f t="shared" ref="C4:C12" si="2">$B$2/$B4</f>
         <v>1.5603095150312931</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39007737875782328</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.39007737875782328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1.57498908645114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>8</v>
       </c>
@@ -9508,15 +10069,19 @@
         <v>38.218200000000003</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3.6099554662438313</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>3.6099554662438313</v>
-      </c>
-      <c r="D5" s="1">
+        <v>0.45124443328047892</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.45124443328047892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.6439183425697705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>16</v>
       </c>
@@ -9524,15 +10089,19 @@
         <v>21.241299999999999</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>6.4951768488745989</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>6.4951768488745989</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.40594855305466243</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.40594855305466243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6.5562842198923805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>32</v>
       </c>
@@ -9540,15 +10109,19 @@
         <v>11.903</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>11.590859447198186</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>11.590859447198186</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.36221435772494331</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.36221435772494331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>11.699907586322775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>64</v>
       </c>
@@ -9556,15 +10129,19 @@
         <v>6.1251600000000002</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>22.524472830097501</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>22.524472830097501</v>
-      </c>
-      <c r="D8" s="1">
+        <v>0.35194488797027346</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.35194488797027346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>22.736385661762309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>128</v>
       </c>
@@ -9572,15 +10149,19 @@
         <v>3.3075999999999999</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>41.711815213447821</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>41.711815213447821</v>
-      </c>
-      <c r="D9" s="1">
+        <v>0.3258735563550611</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.3258735563550611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>42.104244769621481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>256</v>
       </c>
@@ -9588,15 +10169,19 @@
         <v>2.12093</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>65.049765904579601</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>65.049765904579601</v>
-      </c>
-      <c r="D10" s="1">
+        <v>0.25410064806476407</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.25410064806476407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>65.661761585719475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>512</v>
       </c>
@@ -9604,15 +10189,19 @@
         <v>1.4369499999999999</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>96.013083266641161</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>96.013083266641161</v>
-      </c>
-      <c r="D11" s="1">
+        <v>0.18752555325515852</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.18752555325515852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>96.916385399631167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -9620,15 +10209,19 @@
         <v>1.23492</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>111.72059728565414</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>111.72059728565414</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
         <v>0.10910214578677162</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E12">
+        <f>((4096000*17*2)/(B12*0.001))*0.000000001</f>
+        <v>112.771677517572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -9636,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9644,7 +10237,7 @@
         <v>137.959</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9755,11 +10348,11 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F38" si="2">B29-B16</f>
+        <f t="shared" ref="F29:F38" si="3">B29-B16</f>
         <v>6.210000000000008</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:G38" si="3">F29/B3</f>
+        <f t="shared" ref="G29:G38" si="4">F29/B3</f>
         <v>4.2365076441333631E-2</v>
       </c>
     </row>
@@ -9774,11 +10367,11 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4307000000000016</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2727211039761527E-2</v>
       </c>
     </row>
@@ -9793,11 +10386,11 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8657000000000039</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10114814407795249</v>
       </c>
     </row>
@@ -9812,11 +10405,11 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6292000000000009</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12377773488439978</v>
       </c>
     </row>
@@ -9831,11 +10424,11 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5898599999999998</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13356800806519362</v>
       </c>
     </row>
@@ -9850,11 +10443,11 @@
         <v>64</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88718000000000075</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14484193065977063</v>
       </c>
     </row>
@@ -9869,11 +10462,11 @@
         <v>128</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48021000000000003</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14518381908332326</v>
       </c>
     </row>
@@ -9888,11 +10481,11 @@
         <v>256</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40842000000000001</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19256646848316541</v>
       </c>
     </row>
@@ -9907,11 +10500,11 @@
         <v>512</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.453847</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31584049549392812</v>
       </c>
     </row>
@@ -9926,11 +10519,11 @@
         <v>1024</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37799499999999997</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30608865351601722</v>
       </c>
     </row>
@@ -10010,7 +10603,7 @@
         <v>6.5215199999999998</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ref="D46:D51" si="4">(B33-B46)/B7</f>
+        <f t="shared" ref="D46:D51" si="5">(B33-B46)/B7</f>
         <v>0.37548349155675037</v>
       </c>
     </row>
@@ -10022,7 +10615,7 @@
         <v>3.1059700000000001</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39408276681751991</v>
       </c>
     </row>
@@ -10034,7 +10627,7 @@
         <v>1.4634199999999999</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44455194098439954</v>
       </c>
     </row>
@@ -10046,7 +10639,7 @@
         <v>0.67955500000000002</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5733923326088084</v>
       </c>
     </row>
@@ -10058,7 +10651,7 @@
         <v>0.283022</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70991892550193125</v>
       </c>
     </row>
@@ -10070,7 +10663,7 @@
         <v>9.4416799999999995E-2</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8746827324846953</v>
       </c>
     </row>
@@ -10089,13 +10682,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10108,8 +10701,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10124,8 +10720,12 @@
         <f>$B$2/($A2*$B2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>((4096000*31*2)/(B2*0.001))*0.000000001</f>
+        <v>1.1131264163266024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10140,8 +10740,12 @@
         <f t="shared" ref="D3:D12" si="0">$B$2/($A3*$B3)</f>
         <v>0.50962771351856073</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="1">((4096000*31*2)/(B3*0.001))*0.000000001</f>
+        <v>1.1345601408192716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -10149,15 +10753,19 @@
         <v>120.6</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C12" si="1">$B$2/$B4</f>
+        <f t="shared" ref="C4:C12" si="2">$B$2/$B4</f>
         <v>1.8917330016583749</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>0.47293325041459372</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.1057379767827533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>8</v>
       </c>
@@ -10165,15 +10773,19 @@
         <v>91.865799999999993</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.483437797308683</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0.31042972466358537</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.7643802154882451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>16</v>
       </c>
@@ -10181,15 +10793,19 @@
         <v>40.687100000000001</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6072563539795164</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.35045352212371977</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6.2415851707297891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>26</v>
       </c>
@@ -10197,15 +10813,19 @@
         <v>17.105599999999999</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.337328126461511</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.51297415871005814</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>14.846132260780097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>64</v>
       </c>
@@ -10213,15 +10833,19 @@
         <v>8.9086700000000008</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.609097654307543</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0.40014215084855537</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>28.506163097297353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>128</v>
       </c>
@@ -10229,15 +10853,19 @@
         <v>4.9079800000000002</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.484093252213739</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.36315697853291984</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>51.742672138028269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>256</v>
       </c>
@@ -10245,15 +10873,19 @@
         <v>2.7444199999999999</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.129768767171214</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0.32472565924676255</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>92.533941597860391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>512</v>
       </c>
@@ -10261,15 +10893,19 @@
         <v>1.8576900000000001</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122.81004903939839</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0.23986337703007499</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>136.70310977611982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -10277,15 +10913,19 @@
         <v>1.6037600000000001</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142.25507557240485</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0.13892097223867661</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>158.34788247618098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -10293,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -10301,7 +10941,7 @@
         <v>228.131</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -10412,11 +11052,11 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F38" si="2">B29-B16</f>
+        <f t="shared" ref="F29:F38" si="3">B29-B16</f>
         <v>6.8160000000000025</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:G38" si="3">F29/B3</f>
+        <f t="shared" ref="G29:G38" si="4">F29/B3</f>
         <v>3.0451273940839834E-2</v>
       </c>
     </row>
@@ -10431,11 +11071,11 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1400000000000006</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0912106135986741E-2</v>
       </c>
     </row>
@@ -10450,11 +11090,11 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5241000000000042</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8361392378883162E-2</v>
       </c>
     </row>
@@ -10469,11 +11109,11 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3600999999999956</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8006100213581102E-2</v>
       </c>
     </row>
@@ -10488,11 +11128,11 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0588999999999995</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1903704050135601E-2</v>
       </c>
     </row>
@@ -10507,11 +11147,11 @@
         <v>64</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55648000000000053</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2464991968498161E-2</v>
       </c>
     </row>
@@ -10526,11 +11166,11 @@
         <v>128</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24420999999999982</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9757741474089096E-2</v>
       </c>
     </row>
@@ -10545,11 +11185,11 @@
         <v>256</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19416999999999973</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0750832598508881E-2</v>
       </c>
     </row>
@@ -10564,11 +11204,11 @@
         <v>512</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38701999999999992</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20833400621201595</v>
       </c>
     </row>
@@ -10583,11 +11223,11 @@
         <v>1024</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41047999999999996</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25594852097570703</v>
       </c>
     </row>
@@ -10667,7 +11307,7 @@
         <v>10.4902</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ref="D46:D51" si="4">(B33-B46)/B7</f>
+        <f t="shared" ref="D46:D51" si="5">(B33-B46)/B7</f>
         <v>0.27776283790103828</v>
       </c>
     </row>
@@ -10679,7 +11319,7 @@
         <v>4.8840700000000004</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3206281072258822</v>
       </c>
     </row>
@@ -10691,7 +11331,7 @@
         <v>2.2488600000000001</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38553946837599162</v>
       </c>
     </row>
@@ -10703,7 +11343,7 @@
         <v>1.03508</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45307933916820309</v>
       </c>
     </row>
@@ -10715,7 +11355,7 @@
         <v>0.44959199999999999</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60979388380192601</v>
       </c>
     </row>
@@ -10727,7 +11367,7 @@
         <v>0.161632</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81065620791140813</v>
       </c>
     </row>
@@ -10746,7 +11386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -10769,8 +11409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M11:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
